--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3108671.923293917</v>
+        <v>3102894.385293192</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847137</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7271957.520034315</v>
+        <v>7270777.561253478</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>51.04118354861682</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956569</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>21.24059023834495</v>
+        <v>74.86702424530414</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159199</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>55.12369050152959</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>358.9362078121379</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779136</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.87299265767776</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794421</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>250.1252487690214</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>168.663921049722</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1291,10 +1291,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>135.5413370468854</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1376,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384532</v>
       </c>
       <c r="F11" t="n">
-        <v>286.3751174504514</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1610,22 +1610,22 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211824</v>
+        <v>273.482381017326</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>315.0398534825603</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.9624712641433</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404343</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>85.21891736047064</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419572</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
         <v>298.5345275142884</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007175</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035416</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219388</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507299</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484026</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.5802388872324</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380444</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497637</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943229</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
-        <v>186.5058235738176</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
         <v>137.7482445205302</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135897</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603044</v>
@@ -2570,10 +2570,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414332</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404344</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007176</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035478</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.0855074921939</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507301</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484028</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723241</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380445</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497638</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.6707049994323</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003583</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281741</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415743</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806963</v>
+        <v>282.5278558080567</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313974</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029522</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752496</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453518</v>
+        <v>20.92391191189564</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443531</v>
+        <v>48.81858568179577</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622529</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158228</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495922</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274708</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623491</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346803</v>
+        <v>276.4959681620407</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046363</v>
+        <v>67.32610467782409</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074604</v>
+        <v>52.4732329281065</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258576</v>
+        <v>38.04694813994622</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546487</v>
+        <v>37.97339019282533</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523214</v>
+        <v>39.7228416125926</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762428</v>
+        <v>50.54167953498474</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419632</v>
+        <v>37.89393170155678</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536825</v>
+        <v>15.73364728272871</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982417</v>
+        <v>6.632145647184629</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535148</v>
+        <v>84.75808915271195</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595236</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865934</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734594</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942095</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409221</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175984</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3740,25 +3740,25 @@
         <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252672</v>
+        <v>1.098310803919873</v>
       </c>
       <c r="E41" t="n">
         <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589425</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>18.04720258387888</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995156</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
         <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
         <v>296.0589625183731</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.8890990341565</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443891</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627863</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915775</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892501</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131715</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788919</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906112</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351704</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090444</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432165</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
         <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252672</v>
+        <v>41.58521707214945</v>
       </c>
       <c r="E44" t="n">
         <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589425</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822805</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812818</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995156</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>180.0009214886872</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
         <v>296.0589625183731</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.8890990341565</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443891</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627863</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915775</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892501</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131715</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788919</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906112</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351704</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090444</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432165</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
         <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.558558346672</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="C2" t="n">
-        <v>896.3830568496023</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="D2" t="n">
-        <v>510.9419280662701</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="E2" t="n">
-        <v>510.9419280662701</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="F2" t="n">
-        <v>94.04748959624783</v>
+        <v>777.7441318441284</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703892</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703892</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703892</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>46.56170315639423</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>405.5440591838561</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>898.8643509023849</v>
       </c>
       <c r="M2" t="n">
-        <v>1039.443159191858</v>
+        <v>898.8643509023849</v>
       </c>
       <c r="N2" t="n">
-        <v>1565.266048587714</v>
+        <v>1400.031133897835</v>
       </c>
       <c r="O2" t="n">
-        <v>2005.305649480043</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851946</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851946</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137468</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.544013137468</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T2" t="n">
-        <v>2086.544013137468</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U2" t="n">
-        <v>2086.544013137468</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V2" t="n">
-        <v>2086.544013137468</v>
+        <v>999.0496848552183</v>
       </c>
       <c r="W2" t="n">
-        <v>2086.544013137468</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="X2" t="n">
-        <v>2086.544013137468</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.053304058069</v>
+        <v>790.5981662737466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163407</v>
+        <v>657.7430775364687</v>
       </c>
       <c r="C3" t="n">
-        <v>454.913144576433</v>
+        <v>507.0888470965609</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979133</v>
+        <v>376.9998797180413</v>
       </c>
       <c r="E3" t="n">
-        <v>188.377686308801</v>
+        <v>240.553388828929</v>
       </c>
       <c r="F3" t="n">
-        <v>63.9458801919328</v>
+        <v>116.1215827120608</v>
       </c>
       <c r="G3" t="n">
-        <v>42.49073853703892</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703892</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703892</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703892</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703892</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>526.0568244353522</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M3" t="n">
-        <v>526.0568244353522</v>
+        <v>861.4042549562989</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896766</v>
+        <v>883.7630516643738</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580658</v>
+        <v>1384.929834659824</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297055</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851946</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.61988375001</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649879</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848787</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527429</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898496</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031783</v>
+        <v>1026.36437211095</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817948</v>
+        <v>837.0572944609614</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094573021</v>
+        <v>657.7430775364687</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703892</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703892</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703892</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703892</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703892</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703892</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703892</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703892</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703892</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469808</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207806</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>381.5016360619518</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>381.5016360619518</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>381.5016360619518</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>98.17123399312942</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>42.49073853703892</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703892</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>956.5524370294374</v>
+        <v>551.2091433733599</v>
       </c>
       <c r="C5" t="n">
-        <v>956.5524370294374</v>
+        <v>551.2091433733599</v>
       </c>
       <c r="D5" t="n">
-        <v>956.5524370294374</v>
+        <v>551.2091433733599</v>
       </c>
       <c r="E5" t="n">
-        <v>956.5524370294374</v>
+        <v>551.2091433733599</v>
       </c>
       <c r="F5" t="n">
-        <v>593.9906109565709</v>
+        <v>538.3551089437417</v>
       </c>
       <c r="G5" t="n">
-        <v>180.8278554445741</v>
+        <v>125.1923534317448</v>
       </c>
       <c r="H5" t="n">
-        <v>180.8278554445741</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703892</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J5" t="n">
-        <v>187.140511445867</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733288</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1565.266048587714</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="N5" t="n">
-        <v>2091.088937983571</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.536926851946</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851946</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851946</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851946</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.536926851946</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.536926851946</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.536926851946</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V5" t="n">
-        <v>2124.536926851946</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.537891820233</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.537891820233</v>
+        <v>951.7038890847567</v>
       </c>
       <c r="Y5" t="n">
-        <v>1357.047182740834</v>
+        <v>951.7038890847567</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622205</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223127</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.320791143793</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>318.8743002546807</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>194.4424941378126</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245264</v>
+        <v>74.382676209677</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512733</v>
+        <v>74.382676209677</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703892</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703892</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>362.2298845992653</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>362.2298845992653</v>
+        <v>521.4159459447612</v>
       </c>
       <c r="M6" t="n">
-        <v>442.2072945938201</v>
+        <v>1022.582728940211</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896766</v>
+        <v>1523.749511935662</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580658</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297055</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851946</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.61988375001</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649879</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848787</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527429</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898496</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031783</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817948</v>
+        <v>1067.174540327675</v>
       </c>
       <c r="Y6" t="n">
-        <v>936.6779263817948</v>
+        <v>887.8603234031818</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.4699108277856</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="C7" t="n">
-        <v>488.4699108277856</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="D7" t="n">
-        <v>488.4699108277856</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="E7" t="n">
-        <v>332.9110986869881</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="F7" t="n">
-        <v>175.585163899961</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="G7" t="n">
-        <v>175.585163899961</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="H7" t="n">
-        <v>175.585163899961</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703892</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703892</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469808</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207806</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>741.1216772611406</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>741.1216772611406</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>741.1216772611406</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>488.4699108277856</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>488.4699108277856</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>488.4699108277856</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1413.191635871889</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1020.016134374819</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>634.5750055914871</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>634.5750055914871</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>217.6805671214648</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,46 +4808,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2199.134950018231</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2199.134950018231</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1809.682344951288</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1413.191635871889</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>140.0776713099957</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.5294713069377</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>233.3243533729269</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>811.8495511815956</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>588.737489998239</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1520.303839177572</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1222.069018967691</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>931.5685714715469</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>623.9257278752798</v>
+        <v>656.6116896536172</v>
       </c>
       <c r="F11" t="n">
-        <v>334.6579324707835</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707835</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244625</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2945.144336927563</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.97820891827</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2421.919855173746</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2127.407931393991</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1825.85790360178</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5124,7 +5124,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
         <v>802.5350401618138</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082783</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979814</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443726</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445337</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311674</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798498</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5209,13 +5209,13 @@
         <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5224,25 +5224,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852105</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592136</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1642.069506034397</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.834685824516</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.334238328372</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
         <v>745.6913947321048</v>
@@ -5267,10 +5267,10 @@
         <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2819.743875775095</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2819.743875775095</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2543.685522030571</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2249.173598250816</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1947.623570458605</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1345.668748541356</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551009</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082783</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979814</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,16 +5434,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.396746836251</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5464,22 +5464,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852104</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592137</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5598,19 +5598,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5756,13 +5756,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,22 +5911,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6066,13 +6066,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>456.9185815712231</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>456.9185815712231</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
         <v>1084.690231197904</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>95.84959395204436</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>95.84959395204436</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>579.4156798503576</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985357</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414154</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878063</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879676</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648018</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573178</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.29817721028</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286455</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498817</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026487</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6467,19 +6467,19 @@
         <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>702.529404369548</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1330.301053996229</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1986.079025206788</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084641</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985475</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600046</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144945</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423759</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282827</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267707</v>
+        <v>87.68547930209924</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304557</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918737</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193355</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1165.756364896305</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1711.757264940885</v>
       </c>
       <c r="N32" t="n">
-        <v>2165.824047797883</v>
+        <v>2239.568548578347</v>
       </c>
       <c r="O32" t="n">
-        <v>2714.354156330597</v>
+        <v>2794.477684958974</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102504</v>
+        <v>3142.665177090496</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243453</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152279</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491233</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448553</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281055</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382477</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748668</v>
+        <v>2554.64726758864</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079629</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398134</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155368</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986686</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.929881371134</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304557</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>91.02736238753999</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>91.02736238753999</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>574.5934482858532</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>574.5934482858532</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.239504859023</v>
+        <v>341.6872565554783</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229159</v>
+        <v>288.6839909715324</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233343</v>
+        <v>250.2527302241119</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804405</v>
+        <v>211.8957704333792</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913172</v>
+        <v>171.771687996417</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886664</v>
+        <v>120.7194864459274</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806401</v>
+        <v>82.44278775748617</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304557</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304557</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="K34" t="n">
-        <v>179.0108193991497</v>
+        <v>148.3852558545707</v>
       </c>
       <c r="L34" t="n">
-        <v>451.6289669133349</v>
+        <v>427.3824312166691</v>
       </c>
       <c r="M34" t="n">
-        <v>637.9205452515989</v>
+        <v>728.5435450432317</v>
       </c>
       <c r="N34" t="n">
-        <v>929.6006869231935</v>
+        <v>911.7331790744408</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.795961605287</v>
+        <v>1189.307481604448</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381865</v>
+        <v>1323.033455149255</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392302</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422783</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003236</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569373</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209178</v>
+        <v>947.388144144827</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279055</v>
+        <v>798.6106513157162</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569868</v>
+        <v>632.4821015969586</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378736</v>
+        <v>515.6036317300066</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524207</v>
+        <v>409.6934228967148</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7020,10 +7020,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7087,7 +7087,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,16 +7096,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
         <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
         <v>974.9038003296507</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1634.317313094942</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7330,25 +7330,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1517.077765835766</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C41" t="n">
-        <v>1517.077765835766</v>
+        <v>1044.441360369037</v>
       </c>
       <c r="D41" t="n">
-        <v>1229.077889042567</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>923.9356161492447</v>
+        <v>738.1896826232702</v>
       </c>
       <c r="F41" t="n">
-        <v>604.4824296693555</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474918</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3087.726887646303</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3087.726887646303</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.415410071034</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2684.749852764686</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2411.192069723106</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2119.180716646296</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1820.13125955703</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344871</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906094</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832572</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325928</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356988</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252775</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690454</v>
+        <v>97.77230107690444</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822075</v>
+        <v>68.2319501674404</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676788</v>
+        <v>245.5691623529118</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170081</v>
+        <v>505.1989733022411</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308015</v>
+        <v>786.9927227160347</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822775</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940012</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.26980279212</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237701</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860411</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423495</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234452</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557627</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288789</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356553</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1557.973630753168</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1557.973630753168</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.973753959969</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>964.8314810666468</v>
+        <v>697.2938177058682</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867576</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648938</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215176</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3036.88408213696</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2878.572604561692</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2633.907047255343</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2452.087934640508</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2160.076581563698</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>1861.027124474432</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7731,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344871</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906094</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832572</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325928</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356988</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252775</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690454</v>
+        <v>97.77230107690444</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822075</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676788</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170081</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308015</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.30013383754</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806886</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237701</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860411</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423495</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234452</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557627</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288789</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356553</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>123.8044614350451</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7988,16 +7988,16 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507706</v>
+        <v>655.3475650705622</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>270.7370809499183</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,19 +8058,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>598.6161957820899</v>
       </c>
       <c r="N3" t="n">
-        <v>531.8098497777268</v>
+        <v>107.9567559936363</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.916632621667</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107136</v>
+        <v>164.2633295905277</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507706</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>183.3496847658893</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>138.6093284369033</v>
       </c>
       <c r="M6" t="n">
-        <v>173.1723846700742</v>
+        <v>598.6161957820899</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671531</v>
+        <v>591.6011865869447</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.916632621667</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,10 +8456,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>457.1386964627902</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8471,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>183.2986537257091</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,10 +8541,10 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8772,10 +8772,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,7 +9246,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9255,13 +9255,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9404,7 +9404,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987036</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>684.2495388215582</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>374.1267046741214</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>105.1563108732264</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10194,22 +10194,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>288.3536975034273</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>105.1563108732267</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10598,7 +10598,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698837</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10902,22 +10902,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11139,13 +11139,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,10 +11154,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11379,7 +11379,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11388,13 +11388,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364591</v>
       </c>
       <c r="F11" t="n">
-        <v>32.35910216055414</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385651</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>73.9850104349602</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213472</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822805</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.3343774542493</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118669</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531177</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>90.82128372247641</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>634565.4037539647</v>
+        <v>633963.8561402044</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>634565.4037539647</v>
+        <v>633963.8561402044</v>
       </c>
     </row>
     <row r="4">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>604539.8540216779</v>
+        <v>604539.854021678</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649195.8411360841</v>
+        <v>649195.8411360843</v>
       </c>
       <c r="C2" t="n">
-        <v>649195.8411360844</v>
+        <v>649195.8411360843</v>
       </c>
       <c r="D2" t="n">
         <v>649195.8411360842</v>
       </c>
       <c r="E2" t="n">
-        <v>610114.0416596582</v>
+        <v>610114.0416596583</v>
       </c>
       <c r="F2" t="n">
-        <v>610114.0416596582</v>
+        <v>610114.0416596581</v>
       </c>
       <c r="G2" t="n">
+        <v>649195.8411360857</v>
+      </c>
+      <c r="H2" t="n">
+        <v>649195.8411360856</v>
+      </c>
+      <c r="I2" t="n">
         <v>649195.8411360858</v>
-      </c>
-      <c r="H2" t="n">
-        <v>649195.8411360857</v>
-      </c>
-      <c r="I2" t="n">
-        <v>649195.8411360856</v>
       </c>
       <c r="J2" t="n">
         <v>649195.8411360851</v>
       </c>
       <c r="K2" t="n">
-        <v>649195.8411360855</v>
+        <v>649195.8411360852</v>
       </c>
       <c r="L2" t="n">
-        <v>649195.841136083</v>
+        <v>649195.8411360853</v>
       </c>
       <c r="M2" t="n">
-        <v>649195.8411360857</v>
+        <v>649195.8411360856</v>
       </c>
       <c r="N2" t="n">
-        <v>649195.8411360857</v>
+        <v>649195.8411360856</v>
       </c>
       <c r="O2" t="n">
-        <v>612774.2838042678</v>
+        <v>612774.2838042679</v>
       </c>
       <c r="P2" t="n">
-        <v>612774.2838042678</v>
+        <v>612774.2838042681</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343512</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602615</v>
+        <v>26460.41160941829</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301429</v>
+        <v>29094.95587301436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469669</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670083</v>
+        <v>46725.80335481254</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436842</v>
+        <v>43782.97194555668</v>
       </c>
       <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192027.546724933</v>
+        <v>198138.1733873963</v>
       </c>
       <c r="C4" t="n">
-        <v>192027.546724933</v>
+        <v>198138.1733873964</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>123047.6773561513</v>
+        <v>123047.6773561512</v>
       </c>
       <c r="F4" t="n">
-        <v>123047.6773561513</v>
+        <v>123047.6773561512</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="H4" t="n">
         <v>147651.9979996332</v>
@@ -26439,13 +26439,13 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148079.6358093552</v>
+        <v>147946.2412003005</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,7 +26454,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>124722.2932551425</v>
+        <v>124722.2932551426</v>
       </c>
       <c r="P4" t="n">
         <v>124722.2932551426</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814958</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814958</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,16 +26479,16 @@
         <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446772</v>
+        <v>60332.67530588338</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>213252.4359886503</v>
+        <v>217002.3341891853</v>
       </c>
       <c r="C6" t="n">
-        <v>391247.7331230018</v>
+        <v>386651.340065735</v>
       </c>
       <c r="D6" t="n">
-        <v>383648.2499087261</v>
+        <v>375911.9606853339</v>
       </c>
       <c r="E6" t="n">
-        <v>301501.1436568856</v>
+        <v>301392.5831027846</v>
       </c>
       <c r="F6" t="n">
-        <v>431954.0747945977</v>
+        <v>431845.5142404966</v>
       </c>
       <c r="G6" t="n">
-        <v>414279.1179479187</v>
+        <v>414279.1179479184</v>
       </c>
       <c r="H6" t="n">
-        <v>443374.0738209328</v>
+        <v>443374.0738209327</v>
       </c>
       <c r="I6" t="n">
+        <v>443374.0738209329</v>
+      </c>
+      <c r="J6" t="n">
+        <v>221804.7156257561</v>
+      </c>
+      <c r="K6" t="n">
+        <v>437134.3054181494</v>
+      </c>
+      <c r="L6" t="n">
+        <v>394191.1212750889</v>
+      </c>
+      <c r="M6" t="n">
+        <v>399591.101875376</v>
+      </c>
+      <c r="N6" t="n">
         <v>443374.0738209327</v>
       </c>
-      <c r="J6" t="n">
-        <v>215288.4304711824</v>
-      </c>
-      <c r="K6" t="n">
-        <v>437134.3054181496</v>
-      </c>
-      <c r="L6" t="n">
-        <v>398239.9584855593</v>
-      </c>
-      <c r="M6" t="n">
-        <v>400642.7968865644</v>
-      </c>
-      <c r="N6" t="n">
-        <v>443374.0738209328</v>
-      </c>
       <c r="O6" t="n">
-        <v>413748.0229364178</v>
+        <v>413646.8519438294</v>
       </c>
       <c r="P6" t="n">
-        <v>432731.5827665745</v>
+        <v>432630.4117739864</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129864</v>
+        <v>506.229073732778</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129864</v>
+        <v>506.229073732778</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="I4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="J4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.8776843078612</v>
+      </c>
+      <c r="M4" t="n">
         <v>776.4890963014442</v>
-      </c>
-      <c r="I4" t="n">
-        <v>776.4890963014442</v>
-      </c>
-      <c r="J4" t="n">
-        <v>917.0607368443781</v>
-      </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
-      <c r="L4" t="n">
-        <v>856.7828422880697</v>
-      </c>
-      <c r="M4" t="n">
-        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126787</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087605</v>
+        <v>58.40725419351567</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165975</v>
+        <v>14.33013548902021</v>
       </c>
       <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129864</v>
+        <v>506.229073732778</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630864</v>
+        <v>85.18305253651704</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559203</v>
+        <v>646.8007142757122</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455234</v>
+        <v>129.688382025732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126787</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129864</v>
+        <v>506.229073732778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630864</v>
+        <v>85.18305253651704</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>357.98994440826</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857385</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97.61862951050925</v>
+        <v>43.99219550355006</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>176.6158284933171</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>53.78928627318413</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713829</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.40537843887397</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026331</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27780,10 +27780,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>30.37184927911275</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>240.3672069071548</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,7 +27916,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>96.19818194796127</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,16 +28992,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,10 +29217,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>35.71049010668767</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901181</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.9912744743165</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.9912744743165</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29539,10 +29539,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29551,10 +29551,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>103.2865954513707</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>26.78466270502668</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539246</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539246</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>28.92237465268919</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539246</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>13.98970481639321</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539246</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539246</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30168,19 +30168,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30402,13 +30402,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>35.7104901066877</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023176</v>
+        <v>36.24905561693167</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N43" t="n">
-        <v>36.24905561693333</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023176</v>
+        <v>36.24905561693149</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561693328</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023176</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>6.124623492698979</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129864</v>
+        <v>506.229073732778</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>120.4356337089931</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>506.229073732778</v>
       </c>
       <c r="N3" t="n">
-        <v>446.4377369235601</v>
+        <v>22.58464313946962</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.229073732778</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129864</v>
+        <v>14.53827799280042</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129864</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>33.78584734179291</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>48.54898157998504</v>
       </c>
       <c r="M6" t="n">
-        <v>80.78526262076232</v>
+        <v>506.229073732778</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129864</v>
+        <v>506.229073732778</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.229073732778</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,10 +35176,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>303.8905267322986</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>93.70171839237574</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,10 +35261,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215744</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.448038484469</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35975,13 +35975,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>598.8774259673916</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36288,16 +36288,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>284.5297693407881</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,10 +36525,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816465</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101033</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853757</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698322</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>22.71185353989304</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215743</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36765,13 +36765,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446898</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,10 +36847,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36914,22 +36914,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>198.2933506465091</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>601.5899204195816</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>559.9273734499378</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>554.0708166997109</v>
+        <v>560.5142791723505</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605123</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659135</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>22.71185353989336</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>111.5840323394992</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759446</v>
+        <v>281.8153286485842</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288834</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910035</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>135.0767409543514</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640771</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,19 +37464,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37622,22 +37622,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
-        <v>201.4959849287077</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,10 +37874,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807268</v>
+        <v>6.174568144772601</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570417</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
         <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>221.2890899918921</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081899</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038424</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38108,13 +38108,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807268</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570417</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
         <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>221.2890899918903</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081899</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708577</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
